--- a/Report of Foresty_20251127/合併估算/鄉鎮的調查相對密度.xlsx
+++ b/Report of Foresty_20251127/合併估算/鄉鎮的調查相對密度.xlsx
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>6.875</v>
+        <v>6.88</v>
       </c>
       <c r="D2">
         <v>0.639</v>
@@ -5061,13 +5061,13 @@
         </is>
       </c>
       <c r="C3">
-        <v>7.875</v>
+        <v>7.88</v>
       </c>
       <c r="D3">
         <v>0.295</v>
       </c>
       <c r="E3">
-        <v>2.625</v>
+        <v>2.62</v>
       </c>
       <c r="F3">
         <v>0.625</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="F4">
         <v>0.227</v>
@@ -5127,7 +5127,7 @@
         <v>0.866</v>
       </c>
       <c r="E5">
-        <v>3.875</v>
+        <v>3.88</v>
       </c>
       <c r="F5">
         <v>0.549</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3.625</v>
+        <v>3.62</v>
       </c>
       <c r="F6">
         <v>0.844</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F7">
         <v>0.125</v>
@@ -5217,7 +5217,7 @@
         <v>0.164</v>
       </c>
       <c r="E8">
-        <v>3.375</v>
+        <v>3.38</v>
       </c>
       <c r="F8">
         <v>0.46</v>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>11.375</v>
+        <v>11.38</v>
       </c>
       <c r="D9">
         <v>0.778</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>31.875</v>
+        <v>31.88</v>
       </c>
       <c r="D11">
         <v>2.517</v>
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>22.875</v>
+        <v>22.88</v>
       </c>
       <c r="D12">
         <v>1.315</v>
       </c>
       <c r="E12">
-        <v>2.375</v>
+        <v>2.38</v>
       </c>
       <c r="F12">
         <v>0.375</v>
@@ -5361,13 +5361,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>45.625</v>
+        <v>45.62</v>
       </c>
       <c r="D13">
         <v>2.639</v>
       </c>
       <c r="E13">
-        <v>4.875</v>
+        <v>4.88</v>
       </c>
       <c r="F13">
         <v>0.8110000000000001</v>
@@ -5397,7 +5397,7 @@
         <v>0.779</v>
       </c>
       <c r="E14">
-        <v>5.625</v>
+        <v>5.62</v>
       </c>
       <c r="F14">
         <v>0.865</v>
@@ -5421,13 +5421,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>23.625</v>
+        <v>23.62</v>
       </c>
       <c r="D15">
         <v>1.511</v>
       </c>
       <c r="E15">
-        <v>2.375</v>
+        <v>2.38</v>
       </c>
       <c r="F15">
         <v>0.73</v>
@@ -5481,13 +5481,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>35.125</v>
+        <v>35.12</v>
       </c>
       <c r="D17">
         <v>0.479</v>
       </c>
       <c r="E17">
-        <v>3.125</v>
+        <v>3.12</v>
       </c>
       <c r="F17">
         <v>0.743</v>
@@ -5511,13 +5511,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>9.286</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D18">
         <v>1.107</v>
       </c>
       <c r="E18">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="F18">
         <v>0.297</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>68.125</v>
+        <v>68.12</v>
       </c>
       <c r="D19">
         <v>2.083</v>
@@ -5577,7 +5577,7 @@
         <v>0.164</v>
       </c>
       <c r="E20">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="F20">
         <v>0.263</v>
@@ -5607,7 +5607,7 @@
         <v>0.901</v>
       </c>
       <c r="E21">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="F21">
         <v>0.35</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>17.625</v>
+        <v>17.62</v>
       </c>
       <c r="D23">
         <v>1.349</v>
@@ -5691,7 +5691,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>26.125</v>
+        <v>26.12</v>
       </c>
       <c r="D24">
         <v>0.854</v>
@@ -5727,7 +5727,7 @@
         <v>0.164</v>
       </c>
       <c r="E25">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="F25">
         <v>0.35</v>
@@ -5757,7 +5757,7 @@
         <v>1.25</v>
       </c>
       <c r="E26">
-        <v>3.125</v>
+        <v>3.12</v>
       </c>
       <c r="F26">
         <v>0.915</v>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="F27">
         <v>0.183</v>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>112.375</v>
+        <v>112.38</v>
       </c>
       <c r="D28">
         <v>3.273</v>
@@ -5847,7 +5847,7 @@
         <v>1.069</v>
       </c>
       <c r="E29">
-        <v>1.125</v>
+        <v>1.12</v>
       </c>
       <c r="F29">
         <v>0.35</v>
@@ -5937,7 +5937,7 @@
         <v>0.412</v>
       </c>
       <c r="E32">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="F32">
         <v>0.183</v>
@@ -5961,7 +5961,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>17.375</v>
+        <v>17.38</v>
       </c>
       <c r="D33">
         <v>0.42</v>
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>13.375</v>
+        <v>13.38</v>
       </c>
       <c r="D34">
         <v>0.183</v>
@@ -6027,7 +6027,7 @@
         <v>0.881</v>
       </c>
       <c r="E35">
-        <v>2.125</v>
+        <v>2.12</v>
       </c>
       <c r="F35">
         <v>0.611</v>
@@ -6081,7 +6081,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>50.125</v>
+        <v>50.12</v>
       </c>
       <c r="D37">
         <v>1.586</v>
@@ -6177,7 +6177,7 @@
         <v>0.25</v>
       </c>
       <c r="E40">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F40">
         <v>0.125</v>
@@ -6237,7 +6237,7 @@
         <v>0.779</v>
       </c>
       <c r="E42">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="F42">
         <v>0.295</v>
@@ -6267,7 +6267,7 @@
         <v>0.313</v>
       </c>
       <c r="E43">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="F43">
         <v>0.263</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>18.875</v>
+        <v>18.88</v>
       </c>
       <c r="D47">
         <v>0.125</v>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C48">
-        <v>45.875</v>
+        <v>45.88</v>
       </c>
       <c r="D48">
         <v>1.217</v>
       </c>
       <c r="E48">
-        <v>1.625</v>
+        <v>1.62</v>
       </c>
       <c r="F48">
         <v>0.324</v>
@@ -6441,13 +6441,13 @@
         </is>
       </c>
       <c r="C49">
-        <v>16.875</v>
+        <v>16.88</v>
       </c>
       <c r="D49">
         <v>2.31</v>
       </c>
       <c r="E49">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="F49">
         <v>0.183</v>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="C50">
-        <v>22.125</v>
+        <v>22.12</v>
       </c>
       <c r="D50">
         <v>2.9</v>
       </c>
       <c r="E50">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="F50">
         <v>0.183</v>
@@ -6501,7 +6501,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>35.625</v>
+        <v>35.62</v>
       </c>
       <c r="D51">
         <v>0.46</v>
@@ -6537,7 +6537,7 @@
         <v>1.236</v>
       </c>
       <c r="E52">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="F52">
         <v>0.35</v>
@@ -6567,7 +6567,7 @@
         <v>11.729</v>
       </c>
       <c r="E53">
-        <v>5.625</v>
+        <v>5.62</v>
       </c>
       <c r="F53">
         <v>0.73</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F54">
         <v>0.125</v>
@@ -6627,7 +6627,7 @@
         <v>0.861</v>
       </c>
       <c r="E55">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="F55">
         <v>0.375</v>
@@ -6681,7 +6681,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>32.625</v>
+        <v>32.62</v>
       </c>
       <c r="D57">
         <v>2.563</v>
@@ -6711,7 +6711,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>16.875</v>
+        <v>16.88</v>
       </c>
       <c r="D58">
         <v>0.125</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="F59">
         <v>0.183</v>
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>299.375</v>
+        <v>299.38</v>
       </c>
       <c r="D61">
         <v>7.627</v>
@@ -6831,7 +6831,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>93.375</v>
+        <v>93.38</v>
       </c>
       <c r="D62">
         <v>3.316</v>
@@ -6861,7 +6861,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>13.125</v>
+        <v>13.12</v>
       </c>
       <c r="D63">
         <v>0.972</v>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="C64">
-        <v>51.375</v>
+        <v>51.38</v>
       </c>
       <c r="D64">
         <v>1.546</v>
       </c>
       <c r="E64">
-        <v>1.125</v>
+        <v>1.12</v>
       </c>
       <c r="F64">
         <v>0.295</v>
@@ -6957,7 +6957,7 @@
         <v>0.164</v>
       </c>
       <c r="E66">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="F66">
         <v>0.263</v>
@@ -6987,7 +6987,7 @@
         <v>1.21</v>
       </c>
       <c r="E67">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="F67">
         <v>0.183</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F69">
         <v>0.125</v>
@@ -7107,7 +7107,7 @@
         <v>0.675</v>
       </c>
       <c r="E71">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="F71">
         <v>0.183</v>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="C72">
-        <v>75.875</v>
+        <v>75.88</v>
       </c>
       <c r="D72">
         <v>3.705</v>
       </c>
       <c r="E72">
-        <v>1.125</v>
+        <v>1.12</v>
       </c>
       <c r="F72">
         <v>0.441</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="C73">
-        <v>143.625</v>
+        <v>143.62</v>
       </c>
       <c r="D73">
         <v>6</v>
       </c>
       <c r="E73">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="F73">
         <v>0.639</v>
@@ -7197,7 +7197,7 @@
         <v>1.69</v>
       </c>
       <c r="E74">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="F74">
         <v>0.183</v>
@@ -7227,7 +7227,7 @@
         <v>0.535</v>
       </c>
       <c r="E75">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="F75">
         <v>0.263</v>
@@ -7257,7 +7257,7 @@
         <v>0.675</v>
       </c>
       <c r="E76">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F76">
         <v>0.125</v>
@@ -7311,7 +7311,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>24.625</v>
+        <v>24.62</v>
       </c>
       <c r="D78">
         <v>1.017</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>107.125</v>
+        <v>107.12</v>
       </c>
       <c r="D79">
         <v>3.833</v>
@@ -7401,13 +7401,13 @@
         </is>
       </c>
       <c r="C81">
-        <v>17.167</v>
+        <v>17.17</v>
       </c>
       <c r="D81">
         <v>1.376</v>
       </c>
       <c r="E81">
-        <v>0.167</v>
+        <v>0.17</v>
       </c>
       <c r="F81">
         <v>0.167</v>
@@ -7431,7 +7431,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>72.625</v>
+        <v>72.62</v>
       </c>
       <c r="D82">
         <v>2.652</v>
@@ -7467,7 +7467,7 @@
         <v>1.21</v>
       </c>
       <c r="E83">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F83">
         <v>0.125</v>
@@ -7491,13 +7491,13 @@
         </is>
       </c>
       <c r="C84">
-        <v>41.625</v>
+        <v>41.62</v>
       </c>
       <c r="D84">
         <v>1.647</v>
       </c>
       <c r="E84">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="F84">
         <v>0.183</v>
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>29.125</v>
+        <v>29.12</v>
       </c>
       <c r="D85">
         <v>0.743</v>
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F86">
         <v>0.125</v>
@@ -7581,13 +7581,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>16.125</v>
+        <v>16.12</v>
       </c>
       <c r="D87">
         <v>0.35</v>
       </c>
       <c r="E87">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F87">
         <v>0.125</v>
@@ -7611,13 +7611,13 @@
         </is>
       </c>
       <c r="C88">
-        <v>20.125</v>
+        <v>20.12</v>
       </c>
       <c r="D88">
         <v>0.875</v>
       </c>
       <c r="E88">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F88">
         <v>0.125</v>
@@ -7647,7 +7647,7 @@
         <v>1.722</v>
       </c>
       <c r="E89">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F89">
         <v>0.125</v>
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>53.125</v>
+        <v>53.12</v>
       </c>
       <c r="D90">
         <v>1.986</v>
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>35.875</v>
+        <v>35.88</v>
       </c>
       <c r="D91">
         <v>4.426</v>
       </c>
       <c r="E91">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F91">
         <v>0.125</v>
@@ -7731,7 +7731,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>75.625</v>
+        <v>75.62</v>
       </c>
       <c r="D92">
         <v>1.7</v>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>6.375</v>
+        <v>6.38</v>
       </c>
       <c r="D93">
         <v>0.183</v>
@@ -7851,7 +7851,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>13.625</v>
+        <v>13.62</v>
       </c>
       <c r="D96">
         <v>1.209</v>
@@ -8811,7 +8811,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>5.625</v>
+        <v>5.62</v>
       </c>
       <c r="D128">
         <v>0.183</v>
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>2.375</v>
+        <v>2.38</v>
       </c>
       <c r="D135">
         <v>0.324</v>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>7.125</v>
+        <v>7.12</v>
       </c>
       <c r="D138">
         <v>0.6929999999999999</v>
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>30.875</v>
+        <v>30.88</v>
       </c>
       <c r="D139">
         <v>0.639</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>3.333</v>
+        <v>3.33</v>
       </c>
       <c r="D143">
         <v>0.422</v>
@@ -9561,7 +9561,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>5.333</v>
+        <v>5.33</v>
       </c>
       <c r="D153">
         <v>0.333</v>
@@ -9591,7 +9591,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>15.875</v>
+        <v>15.88</v>
       </c>
       <c r="D154">
         <v>3.578</v>
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>20.875</v>
+        <v>20.88</v>
       </c>
       <c r="D160">
         <v>0.125</v>
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>5.875</v>
+        <v>5.88</v>
       </c>
       <c r="D162">
         <v>0.125</v>
@@ -9963,7 +9963,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>8.875</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D167">
         <v>0.125</v>
@@ -10083,7 +10083,7 @@
         </is>
       </c>
       <c r="C171">
-        <v>5.571</v>
+        <v>5.57</v>
       </c>
       <c r="D171">
         <v>0.429</v>
@@ -10143,7 +10143,7 @@
         </is>
       </c>
       <c r="C173">
-        <v>17.875</v>
+        <v>17.88</v>
       </c>
       <c r="D173">
         <v>0.789</v>
@@ -10443,7 +10443,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>6.571</v>
+        <v>6.57</v>
       </c>
       <c r="D183">
         <v>0.202</v>
@@ -10473,7 +10473,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>4.875</v>
+        <v>4.88</v>
       </c>
       <c r="D184">
         <v>0.125</v>
@@ -10503,7 +10503,7 @@
         </is>
       </c>
       <c r="C185">
-        <v>16.125</v>
+        <v>16.12</v>
       </c>
       <c r="D185">
         <v>0.743</v>
@@ -10666,7 +10666,7 @@
         <v>0.07857142857142857</v>
       </c>
       <c r="C2">
-        <v>0.1072419047619048</v>
+        <v>0.1070645238095238</v>
       </c>
       <c r="D2">
         <v>0.1380952380952381</v>
@@ -10683,7 +10683,7 @@
         <v>127.575973719696</v>
       </c>
       <c r="H2">
-        <v>435.4953659546383</v>
+        <v>434.7750450787453</v>
       </c>
       <c r="I2">
         <v>319.0683074425212</v>
@@ -10692,10 +10692,10 @@
         <v>560.786722171704</v>
       </c>
       <c r="K2">
-        <v>6.076484155488846</v>
+        <v>6.07482875957683</v>
       </c>
       <c r="L2">
-        <v>10887.38414886596</v>
+        <v>10869.37612696863</v>
       </c>
     </row>
     <row r="3">
@@ -10752,7 +10752,7 @@
         <v>0.07843137254901961</v>
       </c>
       <c r="C4">
-        <v>0.1177258823529412</v>
+        <v>0.11772</v>
       </c>
       <c r="D4">
         <v>0.1568627450980392</v>
@@ -10769,7 +10769,7 @@
         <v>17.98606591879272</v>
       </c>
       <c r="H4">
-        <v>67.39974636522419</v>
+        <v>67.39637863428565</v>
       </c>
       <c r="I4">
         <v>44.9030791804319</v>
@@ -10778,10 +10778,10 @@
         <v>89.8061583608638</v>
       </c>
       <c r="K4">
-        <v>4.210641254783943</v>
+        <v>4.210591287013145</v>
       </c>
       <c r="L4">
-        <v>1684.993659130605</v>
+        <v>1684.909465857141</v>
       </c>
     </row>
     <row r="5">
@@ -10794,7 +10794,7 @@
         <v>0.004667444574095682</v>
       </c>
       <c r="C5">
-        <v>0.01172065344224037</v>
+        <v>0.01165484247374562</v>
       </c>
       <c r="D5">
         <v>0.01983663943990665</v>
@@ -10811,7 +10811,7 @@
         <v>387.893883045105</v>
       </c>
       <c r="H5">
-        <v>144.7154445800479</v>
+        <v>143.9028735394575</v>
       </c>
       <c r="I5">
         <v>57.6291518149246</v>
@@ -10820,10 +10820,10 @@
         <v>244.9238952134296</v>
       </c>
       <c r="K5">
-        <v>4.974769363118202</v>
+        <v>4.969138582696429</v>
       </c>
       <c r="L5">
-        <v>3617.886114501199</v>
+        <v>3597.571838486437</v>
       </c>
     </row>
     <row r="6">
@@ -10836,7 +10836,7 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="C6">
-        <v>0.1071498630136986</v>
+        <v>0.1069295890410959</v>
       </c>
       <c r="D6">
         <v>0.1397260273972603</v>
@@ -10853,7 +10853,7 @@
         <v>62.43053320541382</v>
       </c>
       <c r="H6">
-        <v>212.9309499494937</v>
+        <v>212.4932158739079</v>
       </c>
       <c r="I6">
         <v>152.4447029403402</v>
@@ -10862,10 +10862,10 @@
         <v>277.6671374984768</v>
       </c>
       <c r="K6">
-        <v>5.360967934511295</v>
+        <v>5.358910062555592</v>
       </c>
       <c r="L6">
-        <v>5323.273748737342</v>
+        <v>5312.330396847697</v>
       </c>
     </row>
   </sheetData>

--- a/Report of Foresty_20251127/合併估算/鄉鎮的調查相對密度.xlsx
+++ b/Report of Foresty_20251127/合併估算/鄉鎮的調查相對密度.xlsx
@@ -4971,7 +4971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5018,6 +5018,16 @@
           <t>Se_E</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Mean_E_km2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Se_E_km2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5048,6 +5058,12 @@
       <c r="H2">
         <v>0.057</v>
       </c>
+      <c r="I2">
+        <v>12.215</v>
+      </c>
+      <c r="J2">
+        <v>1.829</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5078,6 +5094,12 @@
       <c r="H3">
         <v>0.08500000000000001</v>
       </c>
+      <c r="I3">
+        <v>10.887</v>
+      </c>
+      <c r="J3">
+        <v>2.721</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5108,6 +5130,12 @@
       <c r="H4">
         <v>0.038</v>
       </c>
+      <c r="I4">
+        <v>4.642</v>
+      </c>
+      <c r="J4">
+        <v>1.202</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5138,6 +5166,12 @@
       <c r="H5">
         <v>0.019</v>
       </c>
+      <c r="I5">
+        <v>4.264</v>
+      </c>
+      <c r="J5">
+        <v>0.616</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5168,6 +5202,12 @@
       <c r="H6">
         <v>0.031</v>
       </c>
+      <c r="I6">
+        <v>4.274</v>
+      </c>
+      <c r="J6">
+        <v>0.995</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5198,6 +5238,12 @@
       <c r="H7">
         <v>0.125</v>
       </c>
+      <c r="I7">
+        <v>3.979</v>
+      </c>
+      <c r="J7">
+        <v>3.979</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5228,6 +5274,12 @@
       <c r="H8">
         <v>0.017</v>
       </c>
+      <c r="I8">
+        <v>3.879</v>
+      </c>
+      <c r="J8">
+        <v>0.536</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5258,6 +5310,12 @@
       <c r="H9">
         <v>0.033</v>
       </c>
+      <c r="I9">
+        <v>3.789</v>
+      </c>
+      <c r="J9">
+        <v>1.051</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5288,6 +5346,12 @@
       <c r="H10">
         <v>0.013</v>
       </c>
+      <c r="I10">
+        <v>3.547</v>
+      </c>
+      <c r="J10">
+        <v>0.421</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5318,6 +5382,12 @@
       <c r="H11">
         <v>0.03</v>
       </c>
+      <c r="I11">
+        <v>3.526</v>
+      </c>
+      <c r="J11">
+        <v>0.966</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5348,6 +5418,12 @@
       <c r="H12">
         <v>0.019</v>
       </c>
+      <c r="I12">
+        <v>3.445</v>
+      </c>
+      <c r="J12">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5378,6 +5454,12 @@
       <c r="H13">
         <v>0.017</v>
       </c>
+      <c r="I13">
+        <v>3.415</v>
+      </c>
+      <c r="J13">
+        <v>0.539</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5408,6 +5490,12 @@
       <c r="H14">
         <v>0.016</v>
       </c>
+      <c r="I14">
+        <v>3.383</v>
+      </c>
+      <c r="J14">
+        <v>0.522</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5438,6 +5526,12 @@
       <c r="H15">
         <v>0.029</v>
       </c>
+      <c r="I15">
+        <v>3.102</v>
+      </c>
+      <c r="J15">
+        <v>0.9389999999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5468,6 +5562,12 @@
       <c r="H16">
         <v>0.061</v>
       </c>
+      <c r="I16">
+        <v>2.918</v>
+      </c>
+      <c r="J16">
+        <v>1.952</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5498,6 +5598,12 @@
       <c r="H17">
         <v>0.021</v>
       </c>
+      <c r="I17">
+        <v>2.817</v>
+      </c>
+      <c r="J17">
+        <v>0.659</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5528,6 +5634,12 @@
       <c r="H18">
         <v>0.059</v>
       </c>
+      <c r="I18">
+        <v>2.728</v>
+      </c>
+      <c r="J18">
+        <v>1.893</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5558,6 +5670,12 @@
       <c r="H19">
         <v>0.015</v>
       </c>
+      <c r="I19">
+        <v>2.632</v>
+      </c>
+      <c r="J19">
+        <v>0.492</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5588,6 +5706,12 @@
       <c r="H20">
         <v>0.036</v>
       </c>
+      <c r="I20">
+        <v>2.629</v>
+      </c>
+      <c r="J20">
+        <v>1.157</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5618,6 +5742,12 @@
       <c r="H21">
         <v>0.014</v>
       </c>
+      <c r="I21">
+        <v>2.551</v>
+      </c>
+      <c r="J21">
+        <v>0.457</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5648,6 +5778,12 @@
       <c r="H22">
         <v>0.018</v>
       </c>
+      <c r="I22">
+        <v>2.285</v>
+      </c>
+      <c r="J22">
+        <v>0.578</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5678,6 +5814,12 @@
       <c r="H23">
         <v>0.023</v>
       </c>
+      <c r="I23">
+        <v>2.163</v>
+      </c>
+      <c r="J23">
+        <v>0.726</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5708,6 +5850,12 @@
       <c r="H24">
         <v>0.013</v>
       </c>
+      <c r="I24">
+        <v>2.076</v>
+      </c>
+      <c r="J24">
+        <v>0.413</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5738,6 +5886,12 @@
       <c r="H25">
         <v>0.025</v>
       </c>
+      <c r="I25">
+        <v>2.033</v>
+      </c>
+      <c r="J25">
+        <v>0.799</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5768,6 +5922,12 @@
       <c r="H26">
         <v>0.017</v>
       </c>
+      <c r="I26">
+        <v>1.962</v>
+      </c>
+      <c r="J26">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5798,6 +5958,12 @@
       <c r="H27">
         <v>0.03</v>
       </c>
+      <c r="I27">
+        <v>1.989</v>
+      </c>
+      <c r="J27">
+        <v>0.971</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5828,6 +5994,12 @@
       <c r="H28">
         <v>0.011</v>
       </c>
+      <c r="I28">
+        <v>1.934</v>
+      </c>
+      <c r="J28">
+        <v>0.341</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5858,6 +6030,12 @@
       <c r="H29">
         <v>0.019</v>
       </c>
+      <c r="I29">
+        <v>1.925</v>
+      </c>
+      <c r="J29">
+        <v>0.599</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5888,6 +6066,12 @@
       <c r="H30">
         <v>0.008999999999999999</v>
       </c>
+      <c r="I30">
+        <v>1.869</v>
+      </c>
+      <c r="J30">
+        <v>0.294</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5918,6 +6102,12 @@
       <c r="H31">
         <v>0.03</v>
       </c>
+      <c r="I31">
+        <v>1.824</v>
+      </c>
+      <c r="J31">
+        <v>0.961</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5948,6 +6138,12 @@
       <c r="H32">
         <v>0.029</v>
       </c>
+      <c r="I32">
+        <v>1.79</v>
+      </c>
+      <c r="J32">
+        <v>0.912</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5978,6 +6174,12 @@
       <c r="H33">
         <v>0.018</v>
       </c>
+      <c r="I33">
+        <v>1.768</v>
+      </c>
+      <c r="J33">
+        <v>0.579</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6008,6 +6210,12 @@
       <c r="H34">
         <v>0.018</v>
       </c>
+      <c r="I34">
+        <v>1.749</v>
+      </c>
+      <c r="J34">
+        <v>0.575</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6038,6 +6246,12 @@
       <c r="H35">
         <v>0.014</v>
       </c>
+      <c r="I35">
+        <v>1.505</v>
+      </c>
+      <c r="J35">
+        <v>0.432</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6068,6 +6282,12 @@
       <c r="H36">
         <v>0.03</v>
       </c>
+      <c r="I36">
+        <v>1.459</v>
+      </c>
+      <c r="J36">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6098,6 +6318,12 @@
       <c r="H37">
         <v>0.01</v>
       </c>
+      <c r="I37">
+        <v>1.442</v>
+      </c>
+      <c r="J37">
+        <v>0.312</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6128,6 +6354,12 @@
       <c r="H38">
         <v>0.014</v>
       </c>
+      <c r="I38">
+        <v>1.416</v>
+      </c>
+      <c r="J38">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6158,6 +6390,12 @@
       <c r="H39">
         <v>0.012</v>
       </c>
+      <c r="I39">
+        <v>1.353</v>
+      </c>
+      <c r="J39">
+        <v>0.389</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6188,6 +6426,12 @@
       <c r="H40">
         <v>0.042</v>
       </c>
+      <c r="I40">
+        <v>1.326</v>
+      </c>
+      <c r="J40">
+        <v>1.326</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6218,6 +6462,12 @@
       <c r="H41">
         <v>0.022</v>
       </c>
+      <c r="I41">
+        <v>1.326</v>
+      </c>
+      <c r="J41">
+        <v>0.709</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6248,6 +6498,12 @@
       <c r="H42">
         <v>0.014</v>
       </c>
+      <c r="I42">
+        <v>1.321</v>
+      </c>
+      <c r="J42">
+        <v>0.442</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6278,6 +6534,12 @@
       <c r="H43">
         <v>0.017</v>
       </c>
+      <c r="I43">
+        <v>1.31</v>
+      </c>
+      <c r="J43">
+        <v>0.555</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6308,6 +6570,12 @@
       <c r="H44">
         <v>0.008999999999999999</v>
       </c>
+      <c r="I44">
+        <v>1.275</v>
+      </c>
+      <c r="J44">
+        <v>0.283</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6338,6 +6606,12 @@
       <c r="H45">
         <v>0.013</v>
       </c>
+      <c r="I45">
+        <v>1.268</v>
+      </c>
+      <c r="J45">
+        <v>0.421</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6368,6 +6642,12 @@
       <c r="H46">
         <v>0.013</v>
       </c>
+      <c r="I46">
+        <v>1.256</v>
+      </c>
+      <c r="J46">
+        <v>0.419</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6398,6 +6678,12 @@
       <c r="H47">
         <v>0.016</v>
       </c>
+      <c r="I47">
+        <v>1.256</v>
+      </c>
+      <c r="J47">
+        <v>0.525</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6428,6 +6714,12 @@
       <c r="H48">
         <v>0.007</v>
       </c>
+      <c r="I48">
+        <v>1.16</v>
+      </c>
+      <c r="J48">
+        <v>0.236</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6458,6 +6750,12 @@
       <c r="H49">
         <v>0.021</v>
       </c>
+      <c r="I49">
+        <v>1.142</v>
+      </c>
+      <c r="J49">
+        <v>0.6830000000000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6488,6 +6786,12 @@
       <c r="H50">
         <v>0.013</v>
       </c>
+      <c r="I50">
+        <v>1.13</v>
+      </c>
+      <c r="J50">
+        <v>0.424</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6518,6 +6822,12 @@
       <c r="H51">
         <v>0.007</v>
       </c>
+      <c r="I51">
+        <v>1.116</v>
+      </c>
+      <c r="J51">
+        <v>0.221</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6548,6 +6858,12 @@
       <c r="H52">
         <v>0.015</v>
       </c>
+      <c r="I52">
+        <v>1.103</v>
+      </c>
+      <c r="J52">
+        <v>0.464</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6578,6 +6894,12 @@
       <c r="H53">
         <v>0.003</v>
       </c>
+      <c r="I53">
+        <v>1.069</v>
+      </c>
+      <c r="J53">
+        <v>0.104</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6608,6 +6930,12 @@
       <c r="H54">
         <v>0.031</v>
       </c>
+      <c r="I54">
+        <v>0.995</v>
+      </c>
+      <c r="J54">
+        <v>0.995</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6638,6 +6966,12 @@
       <c r="H55">
         <v>0.017</v>
       </c>
+      <c r="I55">
+        <v>0.985</v>
+      </c>
+      <c r="J55">
+        <v>0.556</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6668,6 +7002,12 @@
       <c r="H56">
         <v>0.01</v>
       </c>
+      <c r="I56">
+        <v>0.927</v>
+      </c>
+      <c r="J56">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6698,6 +7038,12 @@
       <c r="H57">
         <v>0.008</v>
       </c>
+      <c r="I57">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="J57">
+        <v>0.261</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6728,6 +7074,12 @@
       <c r="H58">
         <v>0.011</v>
       </c>
+      <c r="I58">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="J58">
+        <v>0.354</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6758,6 +7110,12 @@
       <c r="H59">
         <v>0.008</v>
       </c>
+      <c r="I59">
+        <v>0.865</v>
+      </c>
+      <c r="J59">
+        <v>0.253</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6788,6 +7146,12 @@
       <c r="H60">
         <v>0.01</v>
       </c>
+      <c r="I60">
+        <v>0.875</v>
+      </c>
+      <c r="J60">
+        <v>0.332</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6818,6 +7182,12 @@
       <c r="H61">
         <v>0.003</v>
       </c>
+      <c r="I61">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J61">
+        <v>0.101</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6848,6 +7218,12 @@
       <c r="H62">
         <v>0.005</v>
       </c>
+      <c r="I62">
+        <v>0.777</v>
+      </c>
+      <c r="J62">
+        <v>0.172</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6878,6 +7254,12 @@
       <c r="H63">
         <v>0.015</v>
       </c>
+      <c r="I63">
+        <v>0.707</v>
+      </c>
+      <c r="J63">
+        <v>0.482</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6908,6 +7290,12 @@
       <c r="H64">
         <v>0.005</v>
       </c>
+      <c r="I64">
+        <v>0.673</v>
+      </c>
+      <c r="J64">
+        <v>0.172</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6938,6 +7326,12 @@
       <c r="H65">
         <v>0.014</v>
       </c>
+      <c r="I65">
+        <v>0.663</v>
+      </c>
+      <c r="J65">
+        <v>0.434</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6968,6 +7362,12 @@
       <c r="H66">
         <v>0.013</v>
       </c>
+      <c r="I66">
+        <v>0.607</v>
+      </c>
+      <c r="J66">
+        <v>0.422</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6998,6 +7398,12 @@
       <c r="H67">
         <v>0.01</v>
       </c>
+      <c r="I67">
+        <v>0.617</v>
+      </c>
+      <c r="J67">
+        <v>0.309</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7028,6 +7434,12 @@
       <c r="H68">
         <v>0.007</v>
       </c>
+      <c r="I68">
+        <v>0.579</v>
+      </c>
+      <c r="J68">
+        <v>0.219</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7058,6 +7470,12 @@
       <c r="H69">
         <v>0.018</v>
       </c>
+      <c r="I69">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="J69">
+        <v>0.5679999999999999</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7088,6 +7506,12 @@
       <c r="H70">
         <v>0.008</v>
       </c>
+      <c r="I70">
+        <v>0.534</v>
+      </c>
+      <c r="J70">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7118,6 +7542,12 @@
       <c r="H71">
         <v>0.008</v>
       </c>
+      <c r="I71">
+        <v>0.551</v>
+      </c>
+      <c r="J71">
+        <v>0.269</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7148,6 +7578,12 @@
       <c r="H72">
         <v>0.005</v>
       </c>
+      <c r="I72">
+        <v>0.465</v>
+      </c>
+      <c r="J72">
+        <v>0.165</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7178,6 +7614,12 @@
       <c r="H73">
         <v>0.004</v>
       </c>
+      <c r="I73">
+        <v>0.403</v>
+      </c>
+      <c r="J73">
+        <v>0.134</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7208,6 +7650,12 @@
       <c r="H74">
         <v>0.007</v>
       </c>
+      <c r="I74">
+        <v>0.427</v>
+      </c>
+      <c r="J74">
+        <v>0.209</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7238,6 +7686,12 @@
       <c r="H75">
         <v>0.005</v>
       </c>
+      <c r="I75">
+        <v>0.408</v>
+      </c>
+      <c r="J75">
+        <v>0.171</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7268,6 +7722,12 @@
       <c r="H76">
         <v>0.013</v>
       </c>
+      <c r="I76">
+        <v>0.398</v>
+      </c>
+      <c r="J76">
+        <v>0.398</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7298,6 +7758,12 @@
       <c r="H77">
         <v>0.008</v>
       </c>
+      <c r="I77">
+        <v>0.379</v>
+      </c>
+      <c r="J77">
+        <v>0.248</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7328,6 +7794,12 @@
       <c r="H78">
         <v>0.008</v>
       </c>
+      <c r="I78">
+        <v>0.394</v>
+      </c>
+      <c r="J78">
+        <v>0.261</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7358,6 +7830,12 @@
       <c r="H79">
         <v>0.002</v>
       </c>
+      <c r="I79">
+        <v>0.365</v>
+      </c>
+      <c r="J79">
+        <v>0.068</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7388,6 +7866,12 @@
       <c r="H80">
         <v>0.007</v>
       </c>
+      <c r="I80">
+        <v>0.362</v>
+      </c>
+      <c r="J80">
+        <v>0.238</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7418,6 +7902,12 @@
       <c r="H81">
         <v>0.011</v>
       </c>
+      <c r="I81">
+        <v>0.354</v>
+      </c>
+      <c r="J81">
+        <v>0.354</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7448,6 +7938,12 @@
       <c r="H82">
         <v>0.006</v>
       </c>
+      <c r="I82">
+        <v>0.343</v>
+      </c>
+      <c r="J82">
+        <v>0.191</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7478,6 +7974,12 @@
       <c r="H83">
         <v>0.01</v>
       </c>
+      <c r="I83">
+        <v>0.306</v>
+      </c>
+      <c r="J83">
+        <v>0.306</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7508,6 +8010,12 @@
       <c r="H84">
         <v>0.004</v>
       </c>
+      <c r="I84">
+        <v>0.276</v>
+      </c>
+      <c r="J84">
+        <v>0.135</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7538,6 +8046,12 @@
       <c r="H85">
         <v>0.008</v>
       </c>
+      <c r="I85">
+        <v>0.265</v>
+      </c>
+      <c r="J85">
+        <v>0.265</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7568,6 +8082,12 @@
       <c r="H86">
         <v>0.007</v>
       </c>
+      <c r="I86">
+        <v>0.221</v>
+      </c>
+      <c r="J86">
+        <v>0.221</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7598,6 +8118,12 @@
       <c r="H87">
         <v>0.007</v>
       </c>
+      <c r="I87">
+        <v>0.234</v>
+      </c>
+      <c r="J87">
+        <v>0.234</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7628,6 +8154,12 @@
       <c r="H88">
         <v>0.006</v>
       </c>
+      <c r="I88">
+        <v>0.181</v>
+      </c>
+      <c r="J88">
+        <v>0.181</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7658,6 +8190,12 @@
       <c r="H89">
         <v>0.006</v>
       </c>
+      <c r="I89">
+        <v>0.189</v>
+      </c>
+      <c r="J89">
+        <v>0.189</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7688,6 +8226,12 @@
       <c r="H90">
         <v>0.003</v>
       </c>
+      <c r="I90">
+        <v>0.143</v>
+      </c>
+      <c r="J90">
+        <v>0.094</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7718,6 +8262,12 @@
       <c r="H91">
         <v>0.004</v>
       </c>
+      <c r="I91">
+        <v>0.137</v>
+      </c>
+      <c r="J91">
+        <v>0.137</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7748,6 +8298,12 @@
       <c r="H92">
         <v>0.002</v>
       </c>
+      <c r="I92">
+        <v>0.105</v>
+      </c>
+      <c r="J92">
+        <v>0.06900000000000001</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7778,6 +8334,12 @@
       <c r="H93">
         <v>0</v>
       </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7808,6 +8370,12 @@
       <c r="H94">
         <v>0</v>
       </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7838,6 +8406,12 @@
       <c r="H95">
         <v>0</v>
       </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7868,6 +8442,12 @@
       <c r="H96">
         <v>0</v>
       </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7898,6 +8478,12 @@
       <c r="H97">
         <v>0</v>
       </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7928,6 +8514,12 @@
       <c r="H98">
         <v>0</v>
       </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7958,6 +8550,12 @@
       <c r="H99">
         <v>0</v>
       </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7988,6 +8586,12 @@
       <c r="H100">
         <v>0</v>
       </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8018,6 +8622,12 @@
       <c r="H101">
         <v>0</v>
       </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8048,6 +8658,12 @@
       <c r="H102">
         <v>0</v>
       </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8078,6 +8694,12 @@
       <c r="H103">
         <v>0</v>
       </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8108,6 +8730,12 @@
       <c r="H104">
         <v>0</v>
       </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8138,6 +8766,12 @@
       <c r="H105">
         <v>0</v>
       </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8168,6 +8802,12 @@
       <c r="H106">
         <v>0</v>
       </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8198,6 +8838,12 @@
       <c r="H107">
         <v>0</v>
       </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8228,6 +8874,12 @@
       <c r="H108">
         <v>0</v>
       </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -8258,6 +8910,12 @@
       <c r="H109">
         <v>0</v>
       </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8288,6 +8946,12 @@
       <c r="H110">
         <v>0</v>
       </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8318,6 +8982,12 @@
       <c r="H111">
         <v>0</v>
       </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8348,6 +9018,12 @@
       <c r="H112">
         <v>0</v>
       </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8378,6 +9054,12 @@
       <c r="H113">
         <v>0</v>
       </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8408,6 +9090,12 @@
       <c r="H114">
         <v>0</v>
       </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8438,6 +9126,12 @@
       <c r="H115">
         <v>0</v>
       </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8468,6 +9162,12 @@
       <c r="H116">
         <v>0</v>
       </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8498,6 +9198,12 @@
       <c r="H117">
         <v>0</v>
       </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8528,6 +9234,12 @@
       <c r="H118">
         <v>0</v>
       </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8558,6 +9270,12 @@
       <c r="H119">
         <v>0</v>
       </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8588,6 +9306,12 @@
       <c r="H120">
         <v>0</v>
       </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8618,6 +9342,12 @@
       <c r="H121">
         <v>0</v>
       </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8648,6 +9378,12 @@
       <c r="H122">
         <v>0</v>
       </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8678,6 +9414,12 @@
       <c r="H123">
         <v>0</v>
       </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8708,6 +9450,12 @@
       <c r="H124">
         <v>0</v>
       </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8738,6 +9486,12 @@
       <c r="H125">
         <v>0</v>
       </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8768,6 +9522,12 @@
       <c r="H126">
         <v>0</v>
       </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8798,6 +9558,12 @@
       <c r="H127">
         <v>0</v>
       </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8828,6 +9594,12 @@
       <c r="H128">
         <v>0</v>
       </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8858,6 +9630,12 @@
       <c r="H129">
         <v>0</v>
       </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8888,6 +9666,12 @@
       <c r="H130">
         <v>0</v>
       </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8918,6 +9702,12 @@
       <c r="H131">
         <v>0</v>
       </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8948,6 +9738,12 @@
       <c r="H132">
         <v>0</v>
       </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8978,6 +9774,12 @@
       <c r="H133">
         <v>0</v>
       </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9008,6 +9810,12 @@
       <c r="H134">
         <v>0</v>
       </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9038,6 +9846,12 @@
       <c r="H135">
         <v>0</v>
       </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9068,6 +9882,12 @@
       <c r="H136">
         <v>0</v>
       </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9098,6 +9918,12 @@
       <c r="H137">
         <v>0</v>
       </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9128,6 +9954,12 @@
       <c r="H138">
         <v>0</v>
       </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9158,6 +9990,12 @@
       <c r="H139">
         <v>0</v>
       </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9188,6 +10026,12 @@
       <c r="H140">
         <v>0</v>
       </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9218,6 +10062,12 @@
       <c r="H141">
         <v>0</v>
       </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9248,6 +10098,12 @@
       <c r="H142">
         <v>0</v>
       </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9278,6 +10134,12 @@
       <c r="H143">
         <v>0</v>
       </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9308,6 +10170,12 @@
       <c r="H144">
         <v>0</v>
       </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9338,6 +10206,12 @@
       <c r="H145">
         <v>0</v>
       </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9368,6 +10242,12 @@
       <c r="H146">
         <v>0</v>
       </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9398,6 +10278,12 @@
       <c r="H147">
         <v>0</v>
       </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9428,6 +10314,12 @@
       <c r="H148">
         <v>0</v>
       </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9458,6 +10350,12 @@
       <c r="H149">
         <v>0</v>
       </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9488,6 +10386,12 @@
       <c r="H150">
         <v>0</v>
       </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9518,6 +10422,12 @@
       <c r="H151">
         <v>0</v>
       </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9548,6 +10458,12 @@
       <c r="H152">
         <v>0</v>
       </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9578,6 +10494,12 @@
       <c r="H153">
         <v>0</v>
       </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9608,6 +10530,12 @@
       <c r="H154">
         <v>0</v>
       </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9638,6 +10566,12 @@
       <c r="H155">
         <v>0</v>
       </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9668,6 +10602,12 @@
       <c r="H156">
         <v>0</v>
       </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9698,6 +10638,12 @@
       <c r="H157">
         <v>0</v>
       </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9728,6 +10674,12 @@
       <c r="H158">
         <v>0</v>
       </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9758,6 +10710,12 @@
       <c r="H159">
         <v>0</v>
       </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9788,6 +10746,12 @@
       <c r="H160">
         <v>0</v>
       </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9809,6 +10773,9 @@
       <c r="G161">
         <v>0</v>
       </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9839,6 +10806,12 @@
       <c r="H162">
         <v>0</v>
       </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9869,6 +10842,12 @@
       <c r="H163">
         <v>0</v>
       </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9899,6 +10878,12 @@
       <c r="H164">
         <v>0</v>
       </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9920,6 +10905,9 @@
       <c r="G165">
         <v>0</v>
       </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9950,6 +10938,12 @@
       <c r="H166">
         <v>0</v>
       </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9980,6 +10974,12 @@
       <c r="H167">
         <v>0</v>
       </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10010,6 +11010,12 @@
       <c r="H168">
         <v>0</v>
       </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10040,6 +11046,12 @@
       <c r="H169">
         <v>0</v>
       </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10070,6 +11082,12 @@
       <c r="H170">
         <v>0</v>
       </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10100,6 +11118,12 @@
       <c r="H171">
         <v>0</v>
       </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10130,6 +11154,12 @@
       <c r="H172">
         <v>0</v>
       </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10160,6 +11190,12 @@
       <c r="H173">
         <v>0</v>
       </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10190,6 +11226,12 @@
       <c r="H174">
         <v>0</v>
       </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10220,6 +11262,12 @@
       <c r="H175">
         <v>0</v>
       </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10250,6 +11298,12 @@
       <c r="H176">
         <v>0</v>
       </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10280,6 +11334,12 @@
       <c r="H177">
         <v>0</v>
       </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10310,6 +11370,12 @@
       <c r="H178">
         <v>0</v>
       </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10340,6 +11406,12 @@
       <c r="H179">
         <v>0</v>
       </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10370,6 +11442,12 @@
       <c r="H180">
         <v>0</v>
       </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10400,6 +11478,12 @@
       <c r="H181">
         <v>0</v>
       </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10430,6 +11514,12 @@
       <c r="H182">
         <v>0</v>
       </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10460,6 +11550,12 @@
       <c r="H183">
         <v>0</v>
       </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10490,6 +11586,12 @@
       <c r="H184">
         <v>0</v>
       </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10520,6 +11622,12 @@
       <c r="H185">
         <v>0</v>
       </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10550,6 +11658,12 @@
       <c r="H186">
         <v>0</v>
       </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10578,6 +11692,12 @@
         <v>0</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
         <v>0</v>
       </c>
     </row>
@@ -10666,7 +11786,7 @@
         <v>0.07857142857142857</v>
       </c>
       <c r="C2">
-        <v>0.1070645238095238</v>
+        <v>0.1070361904761905</v>
       </c>
       <c r="D2">
         <v>0.1380952380952381</v>
@@ -10683,7 +11803,7 @@
         <v>127.575973719696</v>
       </c>
       <c r="H2">
-        <v>434.7750450787453</v>
+        <v>434.6599871133343</v>
       </c>
       <c r="I2">
         <v>319.0683074425212</v>
@@ -10692,10 +11812,10 @@
         <v>560.786722171704</v>
       </c>
       <c r="K2">
-        <v>6.07482875957683</v>
+        <v>6.074564086629864</v>
       </c>
       <c r="L2">
-        <v>10869.37612696863</v>
+        <v>10866.49967783336</v>
       </c>
     </row>
     <row r="3">
@@ -10752,7 +11872,7 @@
         <v>0.07843137254901961</v>
       </c>
       <c r="C4">
-        <v>0.11772</v>
+        <v>0.1178105882352941</v>
       </c>
       <c r="D4">
         <v>0.1568627450980392</v>
@@ -10769,7 +11889,7 @@
         <v>17.98606591879272</v>
       </c>
       <c r="H4">
-        <v>67.39637863428565</v>
+        <v>67.44824169073905</v>
       </c>
       <c r="I4">
         <v>44.9030791804319</v>
@@ -10778,10 +11898,10 @@
         <v>89.8061583608638</v>
       </c>
       <c r="K4">
-        <v>4.210591287013145</v>
+        <v>4.211360513978013</v>
       </c>
       <c r="L4">
-        <v>1684.909465857141</v>
+        <v>1686.206042268476</v>
       </c>
     </row>
     <row r="5">
@@ -10794,10 +11914,10 @@
         <v>0.004667444574095682</v>
       </c>
       <c r="C5">
-        <v>0.01165484247374562</v>
+        <v>0.0116193698949825</v>
       </c>
       <c r="D5">
-        <v>0.01983663943990665</v>
+        <v>0.01866977829638273</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -10811,19 +11931,19 @@
         <v>387.893883045105</v>
       </c>
       <c r="H5">
-        <v>143.9028735394575</v>
+        <v>143.4648919856641</v>
       </c>
       <c r="I5">
         <v>57.6291518149246</v>
       </c>
       <c r="J5">
-        <v>244.9238952134296</v>
+        <v>230.5166072596984</v>
       </c>
       <c r="K5">
-        <v>4.969138582696429</v>
+        <v>4.966090350114555</v>
       </c>
       <c r="L5">
-        <v>3597.571838486437</v>
+        <v>3586.622299641601</v>
       </c>
     </row>
     <row r="6">
@@ -10836,7 +11956,7 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="C6">
-        <v>0.1069295890410959</v>
+        <v>0.1069430136986301</v>
       </c>
       <c r="D6">
         <v>0.1397260273972603</v>
@@ -10853,7 +11973,7 @@
         <v>62.43053320541382</v>
       </c>
       <c r="H6">
-        <v>212.4932158739079</v>
+        <v>212.5198936969225</v>
       </c>
       <c r="I6">
         <v>152.4447029403402</v>
@@ -10862,10 +11982,10 @@
         <v>277.6671374984768</v>
       </c>
       <c r="K6">
-        <v>5.358910062555592</v>
+        <v>5.359035601379919</v>
       </c>
       <c r="L6">
-        <v>5312.330396847697</v>
+        <v>5312.997342423061</v>
       </c>
     </row>
   </sheetData>

--- a/Report of Foresty_20251127/合併估算/鄉鎮的調查相對密度.xlsx
+++ b/Report of Foresty_20251127/合併估算/鄉鎮的調查相對密度.xlsx
@@ -11783,13 +11783,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.07857142857142857</v>
+        <v>2.501006248586926</v>
       </c>
       <c r="C2">
-        <v>0.1070361904761905</v>
+        <v>3.407067760802273</v>
       </c>
       <c r="D2">
-        <v>0.1380952380952381</v>
+        <v>4.395707952061871</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -11803,13 +11803,13 @@
         <v>127.575973719696</v>
       </c>
       <c r="H2">
-        <v>434.6599871133343</v>
+        <v>434.6599871133342</v>
       </c>
       <c r="I2">
         <v>319.0683074425212</v>
       </c>
       <c r="J2">
-        <v>560.786722171704</v>
+        <v>560.7867221717039</v>
       </c>
       <c r="K2">
         <v>6.074564086629864</v>
@@ -11869,13 +11869,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.07843137254901961</v>
+        <v>2.496548126931692</v>
       </c>
       <c r="C4">
-        <v>0.1178105882352941</v>
+        <v>3.75002749324219</v>
       </c>
       <c r="D4">
-        <v>0.1568627450980392</v>
+        <v>4.993096253863383</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -11911,13 +11911,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.004667444574095682</v>
+        <v>0.1485693751149548</v>
       </c>
       <c r="C5">
-        <v>0.0116193698949825</v>
+        <v>0.3698560308799242</v>
       </c>
       <c r="D5">
-        <v>0.01866977829638273</v>
+        <v>0.5942775004598192</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>4.966090350114555</v>
       </c>
       <c r="L5">
-        <v>3586.622299641601</v>
+        <v>3586.622299641602</v>
       </c>
     </row>
     <row r="6">
@@ -11953,13 +11953,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.07671232876712329</v>
+        <v>2.441829263875654</v>
       </c>
       <c r="C6">
-        <v>0.1069430136986301</v>
+        <v>3.404101851856252</v>
       </c>
       <c r="D6">
-        <v>0.1397260273972603</v>
+        <v>4.447617587773514</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>62.43053320541382</v>
       </c>
       <c r="H6">
-        <v>212.5198936969225</v>
+        <v>212.5198936969224</v>
       </c>
       <c r="I6">
         <v>152.4447029403402</v>
@@ -11985,7 +11985,7 @@
         <v>5.359035601379919</v>
       </c>
       <c r="L6">
-        <v>5312.997342423061</v>
+        <v>5312.99734242306</v>
       </c>
     </row>
   </sheetData>
